--- a/Training Data.xlsx
+++ b/Training Data.xlsx
@@ -1748,18 +1748,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="1" sqref="E2:E528 C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10738,6 +10740,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
